--- a/evaluation/5.2_evaluation_build_time_new_code_size.xlsx
+++ b/evaluation/5.2_evaluation_build_time_new_code_size.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Total</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Endpoint available</t>
+  </si>
+  <si>
+    <t>xyz (s)</t>
   </si>
 </sst>
 </file>
@@ -453,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L202"/>
+  <dimension ref="A1:Y202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,7 +470,7 @@
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -475,15 +478,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -499,7 +502,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -541,7 +544,7 @@
         <v>29.099999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -583,7 +586,7 @@
         <v>30.900000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -624,7 +627,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -665,7 +668,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>10</v>
       </c>
@@ -706,7 +709,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>20</v>
       </c>
@@ -747,7 +750,7 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>30</v>
       </c>
@@ -788,22 +791,22 @@
         <v>49.599999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>10</v>
       </c>
@@ -818,10 +821,24 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17">
@@ -864,8 +881,51 @@
         <f>ROUND(SUMIF($A$28:$A1049, $A17,L$28:L1049)/$B$1/1000,1)</f>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N17" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="P17">
+        <f t="array" ref="P17">ROUND(SUM(($A$28:$A$1000=$A17)*POWER( C$28:C$1000 - C17*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>3.24</v>
+      </c>
+      <c r="Q17">
+        <f t="array" ref="Q17">ROUND(SUM(($A$28:$A$1000=$A17)*POWER( D$28:D$1000 - D17*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="R17">
+        <f t="array" ref="R17">ROUND(SUM(($A$28:$A$1000=$A17)*POWER( E$28:E$1000 - E17*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="S17">
+        <f t="array" ref="S17">ROUND(SUM(($A$28:$A$1000=$A17)*POWER( F$28:F$1000 - F17*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="T17">
+        <f t="array" ref="T17">ROUND(SUM(($A$28:$A$1000=$A17)*POWER( G$28:G$1000 - G17*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.23</v>
+      </c>
+      <c r="U17">
+        <f t="array" ref="U17">ROUND(SUM(($A$28:$A$1000=$A17)*POWER( H$28:H$1000 - H17*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>2.33</v>
+      </c>
+      <c r="V17">
+        <f t="array" ref="V17">ROUND(SUM(($A$28:$A$1000=$A17)*POWER( I$28:I$1000 - I17*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.16</v>
+      </c>
+      <c r="W17">
+        <f t="array" ref="W17">ROUND(SUM(($A$28:$A$1000=$A17)*POWER( J$28:J$1000 - J17*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>1.92</v>
+      </c>
+      <c r="X17">
+        <f t="array" ref="X17">ROUND(SUM(($A$28:$A$1000=$A17)*POWER( K$28:K$1000 - K17*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="Y17">
+        <f t="array" ref="Y17">ROUND(SUM(($A$28:$A$1000=$A17)*POWER( L$28:L$1000 - L17*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>1</v>
       </c>
@@ -910,8 +970,51 @@
         <f>ROUND(SUMIF($A$28:$A1050, $A18,L$28:L1050)/$B$1/1000,1)</f>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N18" s="7">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <f t="array" ref="P18">ROUND(SUM(($A$28:$A$1000=$A18)*POWER( C$28:C$1000 - C18*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="Q18">
+        <f t="array" ref="Q18">ROUND(SUM(($A$28:$A$1000=$A18)*POWER( D$28:D$1000 - D18*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="R18">
+        <f t="array" ref="R18">ROUND(SUM(($A$28:$A$1000=$A18)*POWER( E$28:E$1000 - E18*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="S18">
+        <f t="array" ref="S18">ROUND(SUM(($A$28:$A$1000=$A18)*POWER( F$28:F$1000 - F18*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.12</v>
+      </c>
+      <c r="T18">
+        <f t="array" ref="T18">ROUND(SUM(($A$28:$A$1000=$A18)*POWER( G$28:G$1000 - G18*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="U18">
+        <f t="array" ref="U18">ROUND(SUM(($A$28:$A$1000=$A18)*POWER( H$28:H$1000 - H18*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>4.17</v>
+      </c>
+      <c r="V18">
+        <f t="array" ref="V18">ROUND(SUM(($A$28:$A$1000=$A18)*POWER( I$28:I$1000 - I18*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W18">
+        <f t="array" ref="W18">ROUND(SUM(($A$28:$A$1000=$A18)*POWER( J$28:J$1000 - J18*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>3.84</v>
+      </c>
+      <c r="X18">
+        <f t="array" ref="X18">ROUND(SUM(($A$28:$A$1000=$A18)*POWER( K$28:K$1000 - K18*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="Y18">
+        <f t="array" ref="Y18">ROUND(SUM(($A$28:$A$1000=$A18)*POWER( L$28:L$1000 - L18*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>2</v>
       </c>
@@ -956,8 +1059,51 @@
         <f>ROUND(SUMIF($A$28:$A1051, $A19,L$28:L1051)/$B$1/1000,1)</f>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N19" s="6">
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <f t="array" ref="P19">ROUND(SUM(($A$28:$A$1000=$A19)*POWER( C$28:C$1000 - C19*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>5.03</v>
+      </c>
+      <c r="Q19">
+        <f t="array" ref="Q19">ROUND(SUM(($A$28:$A$1000=$A19)*POWER( D$28:D$1000 - D19*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="R19">
+        <f t="array" ref="R19">ROUND(SUM(($A$28:$A$1000=$A19)*POWER( E$28:E$1000 - E19*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="S19">
+        <f t="array" ref="S19">ROUND(SUM(($A$28:$A$1000=$A19)*POWER( F$28:F$1000 - F19*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.33</v>
+      </c>
+      <c r="T19">
+        <f t="array" ref="T19">ROUND(SUM(($A$28:$A$1000=$A19)*POWER( G$28:G$1000 - G19*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.33</v>
+      </c>
+      <c r="U19">
+        <f t="array" ref="U19">ROUND(SUM(($A$28:$A$1000=$A19)*POWER( H$28:H$1000 - H19*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>3.31</v>
+      </c>
+      <c r="V19">
+        <f t="array" ref="V19">ROUND(SUM(($A$28:$A$1000=$A19)*POWER( I$28:I$1000 - I19*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="W19">
+        <f t="array" ref="W19">ROUND(SUM(($A$28:$A$1000=$A19)*POWER( J$28:J$1000 - J19*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>2.85</v>
+      </c>
+      <c r="X19">
+        <f t="array" ref="X19">ROUND(SUM(($A$28:$A$1000=$A19)*POWER( K$28:K$1000 - K19*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="Y19">
+        <f t="array" ref="Y19">ROUND(SUM(($A$28:$A$1000=$A19)*POWER( L$28:L$1000 - L19*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>5</v>
       </c>
@@ -1002,8 +1148,51 @@
         <f>ROUND(SUMIF($A$28:$A1052, $A20,L$28:L1052)/$B$1/1000,1)</f>
         <v>1.7</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N20" s="6">
+        <v>5</v>
+      </c>
+      <c r="P20">
+        <f t="array" ref="P20">ROUND(SUM(($A$28:$A$1000=$A20)*POWER( C$28:C$1000 - C20*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Q20">
+        <f t="array" ref="Q20">ROUND(SUM(($A$28:$A$1000=$A20)*POWER( D$28:D$1000 - D20*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="R20">
+        <f t="array" ref="R20">ROUND(SUM(($A$28:$A$1000=$A20)*POWER( E$28:E$1000 - E20*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="S20">
+        <f t="array" ref="S20">ROUND(SUM(($A$28:$A$1000=$A20)*POWER( F$28:F$1000 - F20*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.33</v>
+      </c>
+      <c r="T20">
+        <f t="array" ref="T20">ROUND(SUM(($A$28:$A$1000=$A20)*POWER( G$28:G$1000 - G20*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.32</v>
+      </c>
+      <c r="U20">
+        <f t="array" ref="U20">ROUND(SUM(($A$28:$A$1000=$A20)*POWER( H$28:H$1000 - H20*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>2.95</v>
+      </c>
+      <c r="V20">
+        <f t="array" ref="V20">ROUND(SUM(($A$28:$A$1000=$A20)*POWER( I$28:I$1000 - I20*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="W20">
+        <f t="array" ref="W20">ROUND(SUM(($A$28:$A$1000=$A20)*POWER( J$28:J$1000 - J20*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>2.67</v>
+      </c>
+      <c r="X20">
+        <f t="array" ref="X20">ROUND(SUM(($A$28:$A$1000=$A20)*POWER( K$28:K$1000 - K20*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="Y20">
+        <f t="array" ref="Y20">ROUND(SUM(($A$28:$A$1000=$A20)*POWER( L$28:L$1000 - L20*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>10</v>
       </c>
@@ -1048,8 +1237,51 @@
         <f>ROUND(SUMIF($A$28:$A1053, $A21,L$28:L1053)/$B$1/1000,1)</f>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N21" s="3">
+        <v>10</v>
+      </c>
+      <c r="P21">
+        <f t="array" ref="P21">ROUND(SUM(($A$28:$A$1000=$A21)*POWER( C$28:C$1000 - C21*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>3.78</v>
+      </c>
+      <c r="Q21">
+        <f t="array" ref="Q21">ROUND(SUM(($A$28:$A$1000=$A21)*POWER( D$28:D$1000 - D21*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="R21">
+        <f t="array" ref="R21">ROUND(SUM(($A$28:$A$1000=$A21)*POWER( E$28:E$1000 - E21*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="S21">
+        <f t="array" ref="S21">ROUND(SUM(($A$28:$A$1000=$A21)*POWER( F$28:F$1000 - F21*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.27</v>
+      </c>
+      <c r="T21">
+        <f t="array" ref="T21">ROUND(SUM(($A$28:$A$1000=$A21)*POWER( G$28:G$1000 - G21*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.45</v>
+      </c>
+      <c r="U21">
+        <f t="array" ref="U21">ROUND(SUM(($A$28:$A$1000=$A21)*POWER( H$28:H$1000 - H21*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>3.82</v>
+      </c>
+      <c r="V21">
+        <f t="array" ref="V21">ROUND(SUM(($A$28:$A$1000=$A21)*POWER( I$28:I$1000 - I21*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.34</v>
+      </c>
+      <c r="W21">
+        <f t="array" ref="W21">ROUND(SUM(($A$28:$A$1000=$A21)*POWER( J$28:J$1000 - J21*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>3.79</v>
+      </c>
+      <c r="X21">
+        <f t="array" ref="X21">ROUND(SUM(($A$28:$A$1000=$A21)*POWER( K$28:K$1000 - K21*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="Y21">
+        <f t="array" ref="Y21">ROUND(SUM(($A$28:$A$1000=$A21)*POWER( L$28:L$1000 - L21*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1094,8 +1326,51 @@
         <f>ROUND(SUMIF($A$28:$A1054, $A22,L$28:L1054)/$B$1/1000,1)</f>
         <v>1.9</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N22" s="3">
+        <v>20</v>
+      </c>
+      <c r="P22">
+        <f t="array" ref="P22">ROUND(SUM(($A$28:$A$1000=$A22)*POWER( C$28:C$1000 - C22*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>3.79</v>
+      </c>
+      <c r="Q22">
+        <f t="array" ref="Q22">ROUND(SUM(($A$28:$A$1000=$A22)*POWER( D$28:D$1000 - D22*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="R22">
+        <f t="array" ref="R22">ROUND(SUM(($A$28:$A$1000=$A22)*POWER( E$28:E$1000 - E22*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="S22">
+        <f t="array" ref="S22">ROUND(SUM(($A$28:$A$1000=$A22)*POWER( F$28:F$1000 - F22*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.27</v>
+      </c>
+      <c r="T22">
+        <f t="array" ref="T22">ROUND(SUM(($A$28:$A$1000=$A22)*POWER( G$28:G$1000 - G22*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U22">
+        <f t="array" ref="U22">ROUND(SUM(($A$28:$A$1000=$A22)*POWER( H$28:H$1000 - H22*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>2.67</v>
+      </c>
+      <c r="V22">
+        <f t="array" ref="V22">ROUND(SUM(($A$28:$A$1000=$A22)*POWER( I$28:I$1000 - I22*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.61</v>
+      </c>
+      <c r="W22">
+        <f t="array" ref="W22">ROUND(SUM(($A$28:$A$1000=$A22)*POWER( J$28:J$1000 - J22*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>2.19</v>
+      </c>
+      <c r="X22">
+        <f t="array" ref="X22">ROUND(SUM(($A$28:$A$1000=$A22)*POWER( K$28:K$1000 - K22*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="Y22">
+        <f t="array" ref="Y22">ROUND(SUM(($A$28:$A$1000=$A22)*POWER( L$28:L$1000 - L22*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>30</v>
       </c>
@@ -1140,16 +1415,59 @@
         <f>ROUND(SUMIF($A$28:$A1055, $A23,L$28:L1055)/$B$1/1000,1)</f>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N23" s="6">
+        <v>30</v>
+      </c>
+      <c r="P23">
+        <f t="array" ref="P23">ROUND(SUM(($A$28:$A$1000=$A23)*POWER( C$28:C$1000 - C23*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>4.8</v>
+      </c>
+      <c r="Q23">
+        <f t="array" ref="Q23">ROUND(SUM(($A$28:$A$1000=$A23)*POWER( D$28:D$1000 - D23*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="R23">
+        <f t="array" ref="R23">ROUND(SUM(($A$28:$A$1000=$A23)*POWER( E$28:E$1000 - E23*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="S23">
+        <f t="array" ref="S23">ROUND(SUM(($A$28:$A$1000=$A23)*POWER( F$28:F$1000 - F23*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.35</v>
+      </c>
+      <c r="T23">
+        <f t="array" ref="T23">ROUND(SUM(($A$28:$A$1000=$A23)*POWER( G$28:G$1000 - G23*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.85</v>
+      </c>
+      <c r="U23">
+        <f t="array" ref="U23">ROUND(SUM(($A$28:$A$1000=$A23)*POWER( H$28:H$1000 - H23*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>3.99</v>
+      </c>
+      <c r="V23">
+        <f t="array" ref="V23">ROUND(SUM(($A$28:$A$1000=$A23)*POWER( I$28:I$1000 - I23*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="W23">
+        <f t="array" ref="W23">ROUND(SUM(($A$28:$A$1000=$A23)*POWER( J$28:J$1000 - J23*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>3.41</v>
+      </c>
+      <c r="X23">
+        <f t="array" ref="X23">ROUND(SUM(($A$28:$A$1000=$A23)*POWER( K$28:K$1000 - K23*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="Y23">
+        <f t="array" ref="Y23">ROUND(SUM(($A$28:$A$1000=$A23)*POWER( L$28:L$1000 - L23*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>11</v>
       </c>
@@ -1165,7 +1483,7 @@
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1200,9 +1518,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>0</v>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>1E-3</v>
       </c>
       <c r="C28">
         <v>26428</v>
@@ -1237,9 +1555,9 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>0</v>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>1E-3</v>
       </c>
       <c r="C29">
         <v>28305</v>
@@ -1274,9 +1592,9 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>0</v>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>1E-3</v>
       </c>
       <c r="C30">
         <v>27916</v>
@@ -1311,9 +1629,9 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>0</v>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>1E-3</v>
       </c>
       <c r="C31">
         <v>30335</v>
@@ -1348,9 +1666,9 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>0</v>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>1E-3</v>
       </c>
       <c r="C32">
         <v>27498</v>
@@ -1386,8 +1704,8 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>0</v>
+      <c r="A33" s="7">
+        <v>1E-3</v>
       </c>
       <c r="C33">
         <v>28842</v>
@@ -1423,8 +1741,8 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>0</v>
+      <c r="A34" s="7">
+        <v>1E-3</v>
       </c>
       <c r="C34">
         <v>27873</v>
@@ -1460,8 +1778,8 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>0</v>
+      <c r="A35" s="7">
+        <v>1E-3</v>
       </c>
       <c r="C35">
         <v>27171</v>
@@ -1497,8 +1815,8 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>0</v>
+      <c r="A36" s="7">
+        <v>1E-3</v>
       </c>
       <c r="C36">
         <v>28667</v>
@@ -1534,8 +1852,8 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>0</v>
+      <c r="A37" s="7">
+        <v>1E-3</v>
       </c>
       <c r="C37">
         <v>29391</v>
@@ -1571,8 +1889,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>0</v>
+      <c r="A38" s="7">
+        <v>1E-3</v>
       </c>
       <c r="C38">
         <v>29412</v>
@@ -1608,8 +1926,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>0</v>
+      <c r="A39" s="7">
+        <v>1E-3</v>
       </c>
       <c r="C39">
         <v>26891</v>
@@ -1645,8 +1963,8 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>0</v>
+      <c r="A40" s="7">
+        <v>1E-3</v>
       </c>
       <c r="C40">
         <v>30785</v>
@@ -1682,8 +2000,8 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>0</v>
+      <c r="A41" s="7">
+        <v>1E-3</v>
       </c>
       <c r="C41">
         <v>30188</v>
@@ -1719,8 +2037,8 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>0</v>
+      <c r="A42" s="7">
+        <v>1E-3</v>
       </c>
       <c r="C42">
         <v>27578</v>
@@ -1756,8 +2074,8 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>0</v>
+      <c r="A43" s="7">
+        <v>1E-3</v>
       </c>
       <c r="C43">
         <v>32889</v>
@@ -1793,8 +2111,8 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>0</v>
+      <c r="A44" s="7">
+        <v>1E-3</v>
       </c>
       <c r="C44">
         <v>31226</v>
@@ -1830,8 +2148,8 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>0</v>
+      <c r="A45" s="7">
+        <v>1E-3</v>
       </c>
       <c r="C45">
         <v>30340</v>
@@ -1867,8 +2185,8 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>0</v>
+      <c r="A46" s="7">
+        <v>1E-3</v>
       </c>
       <c r="C46">
         <v>28107</v>
@@ -1904,8 +2222,8 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>0</v>
+      <c r="A47" s="7">
+        <v>1E-3</v>
       </c>
       <c r="C47">
         <v>32887</v>
@@ -1941,8 +2259,8 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>0</v>
+      <c r="A48" s="7">
+        <v>1E-3</v>
       </c>
       <c r="C48">
         <v>27357</v>
@@ -1978,8 +2296,8 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>0</v>
+      <c r="A49" s="7">
+        <v>1E-3</v>
       </c>
       <c r="C49">
         <v>31068</v>
@@ -2015,8 +2333,8 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>0</v>
+      <c r="A50" s="7">
+        <v>1E-3</v>
       </c>
       <c r="C50">
         <v>26700</v>
@@ -2052,8 +2370,8 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>0</v>
+      <c r="A51" s="7">
+        <v>1E-3</v>
       </c>
       <c r="C51">
         <v>30025</v>
@@ -2089,8 +2407,8 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>0</v>
+      <c r="A52" s="7">
+        <v>1E-3</v>
       </c>
       <c r="C52">
         <v>27848</v>
@@ -7677,10 +7995,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A27:L27"/>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="A16:L16"/>
     <mergeCell ref="A26:L26"/>
+    <mergeCell ref="N16:Y16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
